--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -21,6 +21,150 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日建行转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日建行转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C4" authorId="0">
       <text>
         <r>
@@ -61,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,14 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘雁峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林帮运</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈旭成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粟尚富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罗茜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴文斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾贵平</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张兆静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孟翠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周立成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李赣明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,15 +379,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月份提过一次成功，6月份再争取5千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月份提过一次成功，6月份再争取2万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>答应建行转账一万，暂未到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定5千，6月10号左右电话催收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定1-2万，5月20日左右发了工资后支付宝转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月份提过一次未成功，6月份再争取5千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍文斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兆景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,13 +960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -913,14 +1049,18 @@
         <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="10">
-        <f t="shared" ref="F3:F33" si="0">SUM(C3:E3)</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F29" si="0">SUM(C3:E3)</f>
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -929,8 +1069,8 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="11">
-        <f t="shared" ref="M3:M34" si="1">F3-(SUM(G3:L3))</f>
-        <v>0</v>
+        <f t="shared" ref="M3:M30" si="1">F3-(SUM(G3:L3))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -938,7 +1078,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -964,7 +1104,9 @@
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1054,7 +1196,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="2"/>
@@ -1077,7 +1219,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="2"/>
@@ -1190,11 +1332,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="27">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1238,7 +1382,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
@@ -1261,9 +1405,11 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1277,14 +1423,11 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="2"/>
@@ -1307,7 +1450,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="2"/>
@@ -1330,11 +1473,9 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B21" s="13"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1348,11 +1489,14 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="2"/>
@@ -1375,7 +1519,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="2"/>
@@ -1398,7 +1542,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="2"/>
@@ -1421,9 +1565,11 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1444,7 +1590,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="2"/>
@@ -1467,9 +1613,11 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1490,11 +1638,9 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1515,7 +1661,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="2"/>
@@ -1538,16 +1684,14 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B30" s="13"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(C30:E30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="2"/>
@@ -1561,119 +1705,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="10">
-        <f>SUM(C34:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8">
-        <f>SUM(F2:F34)</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="9">
-        <f>SUM(M2:M34)</f>
-        <v>1</v>
+    <row r="31" spans="1:13" ht="14.25" thickBot="1">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8">
+        <f>SUM(F2:F30)</f>
+        <v>2</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9">
+        <f>SUM(M2:M30)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -966,7 +964,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1734,32 +1732,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="178"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,16 +203,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>借款总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A轮借款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,58 +273,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴利琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗茜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王建军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王婷婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨小云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张冬梅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章孝鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朱甜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴茜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾贵平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罗纯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李高翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王鹤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +309,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叶志伟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李赣明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月份提过一次成功，6月份再争取2万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>答应建行转账一万，暂未到账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预定5千，6月10号左右电话催收</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,11 +345,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伍文斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张兆景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同意借8-9千，5月底微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月份提过一次未成功，6月份再争取2万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾晨晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月份仍没凑够的话，可以借5千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月份仍没凑够的话，愿意视情况帮忙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月底再争取5千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际借款总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话未通，待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月中旬工行转账五千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +462,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +481,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -609,13 +637,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,18 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,11 +750,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,773 +1110,772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="39.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="36.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="10">
-        <f>SUM(C2:E2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6">
+        <f>SUM(D2:F2)</f>
+        <v>0</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="11">
-        <f>F2-(SUM(G2:L2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" s="2"/>
+      <c r="N2" s="7">
+        <f>G2-(SUM(H2:M2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.5</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="2">
         <v>0.5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F29" si="0">SUM(C3:E3)</f>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G23" si="0">SUM(D3:F3)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M30" si="1">F3-(SUM(G3:L3))</f>
+      <c r="M3" s="2"/>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N24" si="1">G3-(SUM(H3:M3))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="10">
+      <c r="F4" s="2"/>
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="11">
+      <c r="M4" s="2"/>
+      <c r="N4" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="10">
+      <c r="F5" s="2"/>
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="11">
+      <c r="M5" s="2"/>
+      <c r="N5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G9" si="2">SUM(D6:F6)</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:N9" si="3">G6-(SUM(H6:M6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="M8" s="2"/>
+      <c r="N8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="10">
+      <c r="F10" s="2"/>
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="11">
+      <c r="M10" s="2"/>
+      <c r="N10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="2"/>
+    <row r="11" spans="1:14">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="10">
+      <c r="F11" s="2"/>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="11">
+      <c r="M11" s="2"/>
+      <c r="N11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="2"/>
+    <row r="12" spans="1:14" ht="27">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="10">
+      <c r="F12" s="2"/>
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="11">
+      <c r="M12" s="2"/>
+      <c r="N12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="10">
+      <c r="F13" s="2"/>
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="11">
+      <c r="M13" s="2"/>
+      <c r="N13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="10">
+      <c r="F14" s="2"/>
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="11">
+      <c r="M14" s="2"/>
+      <c r="N14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="10">
+      <c r="F15" s="2"/>
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="11">
+      <c r="M15" s="2"/>
+      <c r="N15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="10">
+      <c r="F16" s="2"/>
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="11">
+      <c r="M16" s="2"/>
+      <c r="N16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="2"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="10">
+      <c r="F17" s="2"/>
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="11">
+      <c r="M17" s="2"/>
+      <c r="N17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:14">
+      <c r="A18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="10">
+      <c r="F18" s="2"/>
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="2"/>
+      <c r="N18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="10">
+      <c r="F19" s="2"/>
+      <c r="G19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="11">
+      <c r="M19" s="2"/>
+      <c r="N19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="10">
+      <c r="F20" s="2"/>
+      <c r="G20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="2"/>
+      <c r="N20" s="7">
+        <f>G20-(SUM(H20:M20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="10">
+      <c r="F21" s="2"/>
+      <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="2"/>
+      <c r="N21" s="7">
+        <f>G21-(SUM(H21:M21))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="10">
+      <c r="F22" s="2"/>
+      <c r="G22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="2"/>
+      <c r="N22" s="7">
+        <f>G22-(SUM(H22:M22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="10">
+      <c r="F23" s="2"/>
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="11">
+      <c r="M23" s="2"/>
+      <c r="N23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6">
+        <f>SUM(D24:F24)</f>
+        <v>0</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="11">
+      <c r="M24" s="2"/>
+      <c r="N24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="18">
+        <f>SUM(B2:B24)</f>
+        <v>10.8</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20">
+        <f>SUM(G2:G24)</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21">
+        <f>SUM(N2:N24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="B27" s="31">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="31">
+        <v>10</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="10">
-        <f>SUM(C30:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="14.25" thickBot="1">
-      <c r="A31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8">
-        <f>SUM(F2:F30)</f>
-        <v>2</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9">
-        <f>SUM(M2:M30)</f>
-        <v>2</v>
-      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="26"/>
+    </row>
+    <row r="28" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A28" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="28">
+        <f>SUM(B25:B27)</f>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28">
+        <f>SUM(G25:G27)</f>
+        <v>25.5</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,6 +195,78 @@
           </rPr>
           <t xml:space="preserve">支付宝转账
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>14</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日支付宝转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千</t>
         </r>
       </text>
     </comment>
@@ -203,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曾金柱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6月份再争取0.5-1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.3提过一次未成功，6月份再争取5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,7 +481,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月中旬工行转账五千</t>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝，6月份再争取0.5-1万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行自有7.84+支付宝自有1.93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有6+大姨5+小姨2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余未还金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信转账</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +570,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +601,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -713,13 +839,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +964,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,13 +1278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1127,7 +1295,9 @@
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1135,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1150,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>3</v>
@@ -1171,15 +1341,15 @@
         <v>10</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="2"/>
@@ -1202,22 +1372,18 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B3" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G23" si="0">SUM(D3:F3)</f>
-        <v>1</v>
+        <f t="shared" ref="G3:G5" si="0">SUM(D3:F3)</f>
+        <v>0</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1226,24 +1392,26 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N24" si="1">G3-(SUM(H3:M3))</f>
-        <v>1</v>
+        <f t="shared" ref="N3:N5" si="1">G3-(SUM(H3:M3))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.5</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
@@ -1262,20 +1430,22 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="16">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="32">
+        <v>1</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1285,24 +1455,24 @@
       <c r="M5" s="2"/>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="16">
         <v>0.5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>44</v>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6">
-        <f t="shared" ref="G6:G9" si="2">SUM(D6:F6)</f>
+        <f t="shared" ref="G4:G24" si="2">SUM(D6:F6)</f>
         <v>0</v>
       </c>
       <c r="H6" s="2"/>
@@ -1312,23 +1482,25 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:N9" si="3">G6-(SUM(H6:M6))</f>
+        <f t="shared" ref="N4:N25" si="3">G6-(SUM(H6:M6))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="9" t="s">
-        <v>52</v>
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G7:G10" si="4">SUM(D7:F7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
@@ -1338,21 +1510,23 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N7:N10" si="5">G7-(SUM(H7:M7))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
@@ -1362,25 +1536,21 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
@@ -1390,25 +1560,25 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
+      <c r="A10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="16">
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
@@ -1418,22 +1588,28 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1442,25 +1618,21 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="27">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
@@ -1470,25 +1642,25 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="27">
       <c r="A13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
@@ -1498,25 +1670,25 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B14" s="16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -1526,25 +1698,25 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="16">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
@@ -1554,25 +1726,25 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B16" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
@@ -1582,21 +1754,25 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
@@ -1606,23 +1782,21 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="2"/>
@@ -1632,21 +1806,23 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
+      <c r="A19" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H19" s="2"/>
@@ -1656,13 +1832,13 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="9"/>
@@ -1670,7 +1846,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H20" s="2"/>
@@ -1680,23 +1856,21 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="7">
-        <f>G20-(SUM(H20:M20))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="16"/>
-      <c r="C21" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="2"/>
@@ -1712,15 +1886,17 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="16"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H22" s="2"/>
@@ -1736,7 +1912,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9"/>
@@ -1744,7 +1920,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H23" s="2"/>
@@ -1754,13 +1930,13 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
+        <f>G23-(SUM(H23:M23))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9"/>
@@ -1768,7 +1944,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="6">
-        <f>SUM(D24:F24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H24" s="2"/>
@@ -1778,106 +1954,167 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="18">
-        <f>SUM(B2:B24)</f>
-        <v>10.8</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20">
-        <f>SUM(G2:G24)</f>
-        <v>2</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21">
-        <f>SUM(N2:N24)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="22" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6">
+        <f>SUM(D25:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="18">
+        <f>SUM(B2:B25)</f>
+        <v>13.8</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20">
+        <f>SUM(G2:G25)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21">
+        <f>SUM(N2:N25)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="31">
+        <v>13</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="25"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="31">
-        <v>10</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="31">
-        <v>10</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="26"/>
-    </row>
-    <row r="28" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A28" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="28">
-        <f>SUM(B25:B27)</f>
-        <v>34.299999999999997</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28">
-        <f>SUM(G25:G27)</f>
-        <v>25.5</v>
-      </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="30"/>
+      <c r="B29" s="28">
+        <f>SUM(B26:B28)</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28">
+        <f>SUM(G26:G28)</f>
+        <v>12.2</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="30"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="36"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:A34"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -270,12 +270,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>23</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日支付宝转账一万六千元</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.3提过一次未成功，6月份再争取5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预定1-2万，5月20日左右发了工资后支付宝转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月份提过一次未成功，6月份再争取5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,6 +571,10 @@
   </si>
   <si>
     <t>微信转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,12 +652,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -616,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,17 +1021,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,10 +1339,10 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1305,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1320,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>3</v>
@@ -1341,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1372,7 +1430,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -1403,8 +1461,8 @@
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>52</v>
+      <c r="C4" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="13">
         <v>0.5</v>
@@ -1435,10 +1493,10 @@
       <c r="B5" s="16">
         <v>1.5</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="C5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="37">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
@@ -1466,13 +1524,13 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6">
-        <f t="shared" ref="G4:G24" si="2">SUM(D6:F6)</f>
+        <f t="shared" ref="G6:G24" si="2">SUM(D6:F6)</f>
         <v>0</v>
       </c>
       <c r="H6" s="2"/>
@@ -1482,19 +1540,19 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="7">
-        <f t="shared" ref="N4:N25" si="3">G6-(SUM(H6:M6))</f>
+        <f t="shared" ref="N6:N25" si="3">G6-(SUM(H6:M6))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="16">
         <v>0.5</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1516,11 +1574,11 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1542,7 +1600,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
@@ -1566,13 +1624,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="16">
         <v>0.5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1593,16 +1651,16 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="16">
         <v>0.5</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="C11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="37">
         <v>0.5</v>
       </c>
       <c r="E11" s="2"/>
@@ -1624,7 +1682,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="9"/>
@@ -1646,22 +1704,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="27">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="38" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="16">
         <v>1.5</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="37">
+        <v>1.6</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1671,18 +1731,18 @@
       <c r="M13" s="2"/>
       <c r="N13" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="16">
         <v>0.5</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1710,7 +1770,7 @@
         <v>0.8</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1738,7 +1798,7 @@
         <v>0.5</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1760,13 +1820,13 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="16">
         <v>1</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1816,7 +1876,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1890,7 +1950,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1984,7 +2044,7 @@
     </row>
     <row r="26" spans="1:14" ht="14.25" thickBot="1">
       <c r="A26" s="17" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B26" s="18">
         <f>SUM(B2:B25)</f>
@@ -1996,7 +2056,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20">
         <f>SUM(G2:G25)</f>
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -2006,18 +2066,18 @@
       <c r="M26" s="20"/>
       <c r="N26" s="21">
         <f>SUM(N2:N25)</f>
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11">
         <v>13.5</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -2035,13 +2095,13 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="31">
         <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2059,7 +2119,7 @@
     </row>
     <row r="29" spans="1:14" ht="14.25" thickBot="1">
       <c r="A29" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="28">
         <f>SUM(B26:B28)</f>
@@ -2071,7 +2131,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28">
         <f>SUM(G26:G28)</f>
-        <v>12.2</v>
+        <v>13.799999999999999</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -2082,33 +2142,33 @@
       <c r="N29" s="30"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="32"/>
+      <c r="A31" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="37"/>
       <c r="C31" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="36"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="13"/>
       <c r="C32" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="9" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -542,10 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工行自有7.84+支付宝自有1.93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自有6+大姨5+小姨2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,6 +571,10 @@
   </si>
   <si>
     <t>借款总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工行自有7.84+支付宝自有4.93</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1021,15 +1021,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,6 +1032,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1339,10 +1339,10 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1461,7 +1461,7 @@
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="36" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="13">
@@ -1493,10 +1493,10 @@
       <c r="B5" s="16">
         <v>1.5</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="34">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
@@ -1651,16 +1651,16 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="16">
         <v>0.5</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="34">
         <v>0.5</v>
       </c>
       <c r="E11" s="2"/>
@@ -1705,16 +1705,16 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="16">
         <v>1.5</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="34">
         <v>1.6</v>
       </c>
       <c r="E13" s="2"/>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="26" spans="1:14" ht="14.25" thickBot="1">
       <c r="A26" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="18">
         <f>SUM(B2:B25)</f>
@@ -2077,13 +2077,13 @@
         <v>13.5</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="11">
-        <v>9.6999999999999993</v>
+        <v>12.7</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2131,7 +2131,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="28">
         <f>SUM(G26:G28)</f>
-        <v>13.799999999999999</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -2142,33 +2142,33 @@
       <c r="N29" s="30"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="9" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="35"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="13"/>
       <c r="C32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="35"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="32"/>
       <c r="C33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="33"/>
       <c r="C34" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,6 +320,40 @@
             <charset val="134"/>
           </rPr>
           <t>日支付宝转账一万六千元</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.5.31</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>微信转账八千五</t>
         </r>
       </text>
     </comment>
@@ -328,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,14 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈旭成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王建军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨小云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,18 +436,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王鹤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈语嫣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏永胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孟翠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,14 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李赣明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.3提过一次未成功，6月份再争取5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -458,18 +468,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同意借8-9千，5月底微信转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月份提过一次未成功，6月份再争取2万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>贾晨晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张蓉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,14 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6月份仍没凑够的话，可以借5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,10 +496,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自有资金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电话未通，待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,6 +561,10 @@
   </si>
   <si>
     <t>工行自有7.84+支付宝自有4.93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1041,6 +1031,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,13 +1329,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1363,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1378,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>3</v>
@@ -1399,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1430,7 +1423,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -1462,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13">
         <v>0.5</v>
@@ -1494,7 +1487,7 @@
         <v>1.5</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D5" s="34">
         <v>1</v>
@@ -1517,21 +1510,23 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+      <c r="A6" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="16">
         <v>0.5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="C6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6">
-        <f t="shared" ref="G6:G24" si="2">SUM(D6:F6)</f>
-        <v>0</v>
+        <f>SUM(D6:F6)</f>
+        <v>0.5</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1540,26 +1535,28 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:N25" si="3">G6-(SUM(H6:M6))</f>
-        <v>0</v>
+        <f>G6-(SUM(H6:M6))</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
+      <c r="A7" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="34">
+        <v>1.6</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <f t="shared" ref="G7:G10" si="4">SUM(D7:F7)</f>
-        <v>0</v>
+        <f>SUM(D7:F7)</f>
+        <v>1.6</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1568,24 +1565,28 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:N10" si="5">G7-(SUM(H7:M7))</f>
-        <v>0</v>
+        <f>G7-(SUM(H7:M7))</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="A8" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.85</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(D8:F8)</f>
+        <v>0.85</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1594,21 +1595,25 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>G8-(SUM(H8:M8))</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G9:G16" si="2">SUM(D9:F9)</f>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
@@ -1618,25 +1623,25 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N9:N16" si="3">G9-(SUM(H9:M9))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="16">
         <v>0.5</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
+      <c r="C10" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G10:G11" si="4">SUM(D10:F10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
@@ -1646,28 +1651,26 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N10:N11" si="5">G10-(SUM(H10:M10))</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="35" t="s">
-        <v>17</v>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="16">
         <v>0.5</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="34">
-        <v>0.5</v>
-      </c>
+      <c r="C11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1676,16 +1679,20 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="7">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1705,23 +1712,21 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="34">
-        <v>1.6</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1731,18 +1736,18 @@
       <c r="M13" s="2"/>
       <c r="N13" s="7">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1766,12 +1771,8 @@
       <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1792,13 +1793,11 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1818,71 +1817,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="16">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="18">
+        <f>SUM(B2:B16)</f>
+        <v>13.8</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <f>SUM(G2:G16)</f>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21">
+        <f>SUM(N2:N16)</f>
+        <v>4.9499999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B18" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="25"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="31">
+        <v>13</v>
+      </c>
       <c r="C19" s="9" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="6">
-        <f t="shared" si="2"/>
+      <c r="G19" s="31">
         <v>0</v>
       </c>
       <c r="H19" s="2"/>
@@ -1891,289 +1890,65 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="7">
-        <f>G21-(SUM(H21:M21))</f>
-        <v>0</v>
-      </c>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="28">
+        <f>SUM(B17:B19)</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28">
+        <f>SUM(G17:G19)</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16"/>
+      <c r="A22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="34"/>
       <c r="C22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="7">
-        <f>G22-(SUM(H22:M22))</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="7">
-        <f>G23-(SUM(H23:M23))</f>
-        <v>0</v>
+      <c r="A23" s="39"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="A24" s="39"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="6">
-        <f>SUM(D25:F25)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A26" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="18">
-        <f>SUM(B2:B25)</f>
-        <v>13.8</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20">
-        <f>SUM(G2:G25)</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21">
-        <f>SUM(N2:N25)</f>
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="11">
-        <v>12.7</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="25"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="31">
-        <v>13</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="31">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="26"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A29" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="28">
-        <f>SUM(B26:B28)</f>
-        <v>40.299999999999997</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28">
-        <f>SUM(G26:G28)</f>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="30"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="39"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="9" t="s">
-        <v>59</v>
+      <c r="A25" s="40"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,6 +141,113 @@
             <charset val="134"/>
           </rPr>
           <t>日建行转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.5.3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">支付宝转账
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>14</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日支付宝转账</t>
         </r>
         <r>
           <rPr>
@@ -183,7 +290,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-2018.5.3</t>
+5</t>
         </r>
         <r>
           <rPr>
@@ -193,137 +300,30 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">支付宝转账
-</t>
+          <t>月</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>23</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日支付宝转账一万六千元</t>
         </r>
       </text>
     </comment>
     <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>月</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>14</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>日支付宝转账</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>千</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>月</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>23</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>日支付宝转账一万六千元</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,14 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈语嫣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟翠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>李胜营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预定5千，6月10号左右电话催收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月份提过一次未成功，6月份再争取5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,18 +468,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6月份仍没凑够的话，可以借5千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6月份仍没凑够的话，愿意视情况帮忙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月底再争取5千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标期望</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自有6+大姨5+小姨2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余未还金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,11 +536,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工行自有7.84+支付宝自有4.93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定5千，7月底左右电话催收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月底发工资，借1万，年前换5千</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自有8+大姨5+小姨2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,17 +1007,17 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,13 +1313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1356,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -1371,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>3</v>
@@ -1392,23 +1376,29 @@
         <v>10</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="16">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.5</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="6">
-        <f>SUM(D2:F2)</f>
-        <v>0</v>
+        <f t="shared" ref="G2:G3" si="0">SUM(D2:F2)</f>
+        <v>1</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1417,24 +1407,28 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="7">
-        <f>G2-(SUM(H2:M2))</f>
-        <v>0</v>
+        <f t="shared" ref="N2:N3" si="1">G2-(SUM(H2:M2))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="34">
+        <v>1</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G5" si="0">SUM(D3:F3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1443,30 +1437,28 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N5" si="1">G3-(SUM(H3:M3))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
+      <c r="A4" s="35" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="34">
         <v>0.5</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.5</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(D4:F4)</f>
+        <v>0.5</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1475,28 +1467,28 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>G4-(SUM(H4:M4))</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
+      <c r="A5" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="34">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(D5:F5)</f>
+        <v>1.6</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1505,28 +1497,28 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>G5-(SUM(H5:M5))</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="34">
-        <v>0.5</v>
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.85</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6">
         <f>SUM(D6:F6)</f>
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1536,27 +1528,25 @@
       <c r="M6" s="2"/>
       <c r="N6" s="7">
         <f>G6-(SUM(H6:M6))</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1.5</v>
-      </c>
       <c r="C7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="34">
-        <v>1.6</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <f>SUM(D7:F7)</f>
-        <v>1.6</v>
+        <f t="shared" ref="G7:G12" si="2">SUM(D7:F7)</f>
+        <v>0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1565,28 +1555,26 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
-        <f>G7-(SUM(H7:M7))</f>
-        <v>1.6</v>
+        <f t="shared" ref="N7:N12" si="3">G7-(SUM(H7:M7))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="35" t="s">
-        <v>17</v>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.85</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
-        <f>SUM(D8:F8)</f>
-        <v>0.85</v>
+        <f t="shared" ref="G8:G9" si="4">SUM(D8:F8)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1595,25 +1583,25 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="7">
-        <f>G8-(SUM(H8:M8))</f>
-        <v>0.85</v>
+        <f t="shared" ref="N8:N9" si="5">G8-(SUM(H8:M8))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B9" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="6">
-        <f t="shared" ref="G9:G16" si="2">SUM(D9:F9)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
@@ -1623,25 +1611,25 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:N16" si="3">G9-(SUM(H9:M9))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
+      <c r="A10" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="16">
         <v>0.5</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="6">
-        <f t="shared" ref="G10:G11" si="4">SUM(D10:F10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
@@ -1651,25 +1639,25 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="7">
-        <f t="shared" ref="N10:N11" si="5">G10-(SUM(H10:M10))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B11" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
@@ -1679,19 +1667,17 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16">
-        <v>0.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" s="16"/>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1711,244 +1697,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6">
-        <f t="shared" si="2"/>
+    <row r="13" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="18">
+        <f>SUM(B2:B12)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
+        <f>SUM(G2:G12)</f>
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="21">
+        <f>SUM(N2:N12)</f>
+        <v>4.9499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="11">
+        <v>15</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="31">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="31">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="18">
-        <f>SUM(B2:B16)</f>
-        <v>13.8</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <f>SUM(G2:G16)</f>
-        <v>4.9499999999999993</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21">
-        <f>SUM(N2:N16)</f>
-        <v>4.9499999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="11">
-        <v>12.7</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="31">
-        <v>13</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="28">
+        <f>SUM(B13:B17)</f>
+        <v>44.8</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28">
+        <f>SUM(G13:G17)</f>
+        <v>19.95</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="40"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="40"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="41"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="31">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="28">
-        <f>SUM(B17:B19)</f>
-        <v>40.299999999999997</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28">
-        <f>SUM(G17:G19)</f>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="30"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="39"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="39"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="40"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -357,12 +357,65 @@
         </r>
       </text>
     </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,11 +597,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7月底发工资，借1万，年前换5千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自有8+大姨5+小姨2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘雁峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾晨晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月底发工资，借1万，年前还5千</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1313,13 +1374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1541,12 +1602,14 @@
       <c r="C7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="34">
+        <v>0.5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <f t="shared" ref="G7:G12" si="2">SUM(D7:F7)</f>
-        <v>0</v>
+        <f t="shared" ref="G7:G14" si="2">SUM(D7:F7)</f>
+        <v>0.5</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1555,8 +1618,8 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:N12" si="3">G7-(SUM(H7:M7))</f>
-        <v>0</v>
+        <f t="shared" ref="N7:N14" si="3">G7-(SUM(H7:M7))</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1595,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1616,68 +1679,54 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="14" t="s">
-        <v>20</v>
+      <c r="A10" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
+      <c r="A11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="16">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.5</v>
+      </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1697,87 +1746,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="18">
-        <f>SUM(B2:B12)</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
-        <f>SUM(G2:G12)</f>
-        <v>4.9499999999999993</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21">
-        <f>SUM(N2:N12)</f>
-        <v>4.9499999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="18">
+        <f>SUM(B2:B14)</f>
+        <v>12.8</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
+        <f>SUM(G2:G14)</f>
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21">
+        <f>SUM(N2:N14)</f>
+        <v>5.4499999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B16" s="11">
         <v>3</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11">
-        <v>15</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="11">
-        <v>15</v>
-      </c>
+      <c r="G16" s="11"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -1786,87 +1847,129 @@
       <c r="M16" s="23"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="14.25" thickBot="1">
       <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="11">
+        <v>15</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B19" s="31">
         <v>15</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="31">
+      <c r="C19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="31">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A18" s="27" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="26"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A20" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="28">
-        <f>SUM(B13:B17)</f>
-        <v>44.8</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28">
-        <f>SUM(G13:G17)</f>
-        <v>19.95</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="30"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="39" t="s">
+      <c r="B20" s="28">
+        <f>SUM(B15:B19)</f>
+        <v>47.8</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28">
+        <f>SUM(G15:G19)</f>
+        <v>20.45</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="30"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="9" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="40"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="9" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="40"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="40"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="9" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="40"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="41"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="9" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="41"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="9" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -410,12 +410,122 @@
         </r>
       </text>
     </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝分</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>次共计转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万，一笔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>7</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千，一笔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>千</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -598,10 +708,6 @@
   </si>
   <si>
     <t>自有8+大姨5+小姨2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘雁峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1374,13 +1480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1389,7 +1495,7 @@
     <col min="3" max="3" width="36.375" style="10" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="13" width="9" style="1"/>
     <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
@@ -1608,7 +1714,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6">
-        <f t="shared" ref="G7:G14" si="2">SUM(D7:F7)</f>
+        <f t="shared" ref="G7:G13" si="2">SUM(D7:F7)</f>
         <v>0.5</v>
       </c>
       <c r="H7" s="2"/>
@@ -1618,7 +1724,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:N14" si="3">G7-(SUM(H7:M7))</f>
+        <f t="shared" ref="N7:N13" si="3">G7-(SUM(H7:M7))</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1636,7 +1742,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6">
-        <f t="shared" ref="G8:G9" si="4">SUM(D8:F8)</f>
+        <f t="shared" ref="G8:G10" si="4">SUM(D8:F8)</f>
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
@@ -1658,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1683,13 +1789,18 @@
         <v>46</v>
       </c>
       <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1699,34 +1810,42 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
+      <c r="A11" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1748,13 +1867,11 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1774,65 +1891,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+    <row r="14" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="18">
+        <f>SUM(B2:B13)</f>
+        <v>11.8</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <f>SUM(G2:G13)</f>
+        <v>6.4499999999999993</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21">
+        <f>SUM(N2:N13)</f>
+        <v>5.4499999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="18">
-        <f>SUM(B2:B14)</f>
-        <v>12.8</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
-        <f>SUM(G2:G14)</f>
-        <v>5.4499999999999993</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21">
-        <f>SUM(N2:N14)</f>
-        <v>5.4499999999999993</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="25"/>
     </row>
     <row r="16" spans="1:14" ht="14.25" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B16" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="23"/>
@@ -1847,18 +1958,20 @@
       <c r="M16" s="23"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
+    <row r="17" spans="1:14">
+      <c r="A17" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="B17" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>15</v>
+      </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -1868,108 +1981,86 @@
       <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31">
         <v>15</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="11">
-        <v>15</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="31">
-        <v>15</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="31">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="31">
         <v>0</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="26"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A20" s="27" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="26"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.25" thickBot="1">
+      <c r="A19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="28">
-        <f>SUM(B15:B19)</f>
-        <v>47.8</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28">
-        <f>SUM(G15:G19)</f>
-        <v>20.45</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="30"/>
+      <c r="B19" s="28">
+        <f>SUM(B14:B18)</f>
+        <v>46.8</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28">
+        <f>SUM(G14:G18)</f>
+        <v>21.45</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="30"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="34"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="40"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="40"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="41"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="9" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +410,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝转</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,6 +581,599 @@
             <charset val="134"/>
           </rPr>
           <t>千</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+李小青的</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万现金，算在小姨名下</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>工行转</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万，现金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万（含李小青</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万现金）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>现金万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>工行转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>现金</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.11</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝转</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>支付宝转</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>建行转账</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3.44+7.4+1.05</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万，再加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万农行</t>
         </r>
       </text>
     </comment>
@@ -525,7 +1182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,39 +1192,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A轮还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B轮借款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C轮借款</t>
+    <t>汤黎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B轮还款</t>
+    <t>黄锦宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C轮还款</t>
+    <t>余斌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D轮还款</t>
+    <t>杨小云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E轮还款</t>
+    <t>朱甜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F轮还款</t>
+    <t>罗纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际借款总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余未还金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾晨晨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -575,67 +1248,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汤黎</t>
+    <t>小姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄锦宝</t>
+    <t>大姨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余斌</t>
+    <t>蔡舜华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨小云</t>
+    <t>二舅妈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱甜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗纯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李胜营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3提过一次未成功，6月份再争取5千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月份提过一次未成功，6月份再争取5千</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张兆景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月份提过一次未成功，6月份再争取2万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月份仍没凑够的话，愿意视情况帮忙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标期望</t>
+    <t>李赣明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -643,79 +1272,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老爸</t>
+    <t>zhuimeng17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计</t>
+    <t>爸妈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际借款总额</t>
+    <t>1轮还款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
+    <t>2轮还款</t>
+  </si>
+  <si>
+    <t>3轮还款</t>
+  </si>
+  <si>
+    <t>4轮还款</t>
+  </si>
+  <si>
+    <t>5轮还款</t>
+  </si>
+  <si>
+    <t>6轮还款</t>
+  </si>
+  <si>
+    <t>7轮还款</t>
+  </si>
+  <si>
+    <t>8轮还款</t>
+  </si>
+  <si>
+    <t>9轮还款</t>
+  </si>
+  <si>
+    <t>10轮还款</t>
+  </si>
+  <si>
+    <t>总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝，6月份再争取0.5-1万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余未还金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信转账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预定5千，7月底左右电话催收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自有8+大姨5+小姨2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾晨晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月底发工资，借1万，年前还5千</t>
+    <t>总共筹款53.84万元，其中负债26.45万。这笔款有50.7万元用于交首付，3万元用于契税和维修基金。
+还款按同期银行定期利率计算，一年内还款的按一年定期利率，二年内的按两年定期利率。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +1324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,8 +1360,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,32 +1394,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -954,56 +1539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1049,6 +1584,258 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1059,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1069,122 +1856,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1480,587 +2309,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="36.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
-    <col min="8" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="32">
+        <f>SUM(B2:C2)</f>
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34">
+        <f t="shared" ref="O2:O3" si="0">D2-(SUM(E2:J2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6">
-        <f t="shared" ref="G2:G3" si="0">SUM(D2:F2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="7">
-        <f t="shared" ref="N2:N3" si="1">G2-(SUM(H2:M2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="C3" s="13"/>
+      <c r="D3" s="3">
+        <f>SUM(B3:C3)</f>
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="7">
-        <f t="shared" si="1"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="34">
+    <row r="4" spans="1:15">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3">
+        <f>SUM(B4:C4)</f>
         <v>0.5</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="6">
-        <f>SUM(D4:F4)</f>
-        <v>0.5</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="7">
-        <f>G4-(SUM(H4:M4))</f>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="4">
+        <f>D4-(SUM(E4:J4))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="16">
-        <v>2</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="34">
+    <row r="5" spans="1:15">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="3">
+        <f>SUM(B5:C5)</f>
         <v>1.6</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6">
-        <f>SUM(D5:F5)</f>
-        <v>1.6</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="7">
-        <f>G5-(SUM(H5:M5))</f>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="4">
+        <f>D5-(SUM(E5:J5))</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="33">
+    <row r="6" spans="1:15">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3">
+        <f>SUM(B6:C6)</f>
         <v>0.85</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="6">
-        <f>SUM(D6:F6)</f>
-        <v>0.85</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="7">
-        <f>G6-(SUM(H6:M6))</f>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="4">
+        <f>D6-(SUM(E6:J6))</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16">
+    <row r="7" spans="1:15">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
         <v>0.5</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="34">
+      <c r="C7" s="13"/>
+      <c r="D7" s="3">
+        <f>SUM(B7:C7)</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7:G13" si="2">SUM(D7:F7)</f>
-        <v>0.5</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="7">
-        <f t="shared" ref="N7:N13" si="3">G7-(SUM(H7:M7))</f>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="4">
+        <f>D7-(SUM(E7:J7))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="3">
+        <f>SUM(B8:C8)</f>
+        <v>1</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8:G10" si="4">SUM(D8:F8)</f>
-        <v>0</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="7">
-        <f t="shared" ref="N8:N9" si="5">G8-(SUM(H8:M8))</f>
-        <v>0</v>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="4">
+        <f>D8-(SUM(E8:J8))</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="16">
+    <row r="9" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="36">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37">
+        <f>SUM(B9:C9)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40">
+        <f t="shared" ref="O9:O16" si="1">D9-(SUM(E9:J9))</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="16">
+    <row r="10" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="26">
+        <v>3</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28">
+        <f>SUM(B10:C10)</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="21">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="3">
+        <f>SUM(B11:C11)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="21">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="3">
+        <f>SUM(B12:C12)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3">
+        <f>SUM(B13:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A14" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="42">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
+        <f>SUM(B14:C14)</f>
         <v>2</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="9" t="s">
+    <row r="15" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="21">
+        <v>3</v>
+      </c>
+      <c r="C15" s="42"/>
+      <c r="D15" s="32">
+        <f>SUM(B15:C15)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A16" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="46">
+        <v>2</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37">
+        <f>SUM(B16:C16)</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A17" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49">
+        <f>SUM(D2:D16)</f>
+        <v>26.45</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="51">
+        <f>SUM(O2:O16)</f>
+        <v>26.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="26">
+        <v>12.89</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28">
+        <f>SUM(B18:C18)</f>
+        <v>12.89</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="47"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B19" s="21">
+        <v>14.5</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="3">
+        <f>SUM(B19:C19)</f>
+        <v>14.5</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="16"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <f>SUM(D17:D19)</f>
+        <v>53.84</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="9"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="18">
-        <f>SUM(B2:B13)</f>
-        <v>11.8</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
-        <f>SUM(G2:G13)</f>
-        <v>6.4499999999999993</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21">
-        <f>SUM(N2:N13)</f>
-        <v>5.4499999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="11">
-        <v>2</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="11">
-        <v>15</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="11">
-        <v>15</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="31">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="31">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="26"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.25" thickBot="1">
-      <c r="A19" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="28">
-        <f>SUM(B14:B18)</f>
-        <v>46.8</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28">
-        <f>SUM(G14:G18)</f>
-        <v>21.45</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="30"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="40"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="40"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="41"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="9" t="s">
-        <v>41</v>
-      </c>
+    <row r="21" spans="1:15" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A21" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/购房借款记账.xlsx
+++ b/购房借款记账.xlsx
@@ -868,6 +868,59 @@
             <charset val="134"/>
           </rPr>
           <t>万</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2018.8.15</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>还款</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>万，通过支付宝转到李赣明账上</t>
         </r>
       </text>
     </comment>
@@ -1846,7 +1899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2014,6 +2067,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2315,7 +2386,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2387,7 +2458,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="32">
-        <f>SUM(B2:C2)</f>
+        <f t="shared" ref="D2:D16" si="0">SUM(B2:C2)</f>
         <v>1</v>
       </c>
       <c r="E2" s="6"/>
@@ -2401,7 +2472,7 @@
       <c r="M2" s="33"/>
       <c r="N2" s="33"/>
       <c r="O2" s="34">
-        <f t="shared" ref="O2:O3" si="0">D2-(SUM(E2:J2))</f>
+        <f t="shared" ref="O2:O3" si="1">D2-(SUM(E2:J2))</f>
         <v>1</v>
       </c>
     </row>
@@ -2414,7 +2485,7 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="3">
-        <f>SUM(B3:C3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
@@ -2428,7 +2499,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -2441,7 +2512,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="3">
-        <f>SUM(B4:C4)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E4" s="2"/>
@@ -2468,7 +2539,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="3">
-        <f>SUM(B5:C5)</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="E5" s="2"/>
@@ -2495,7 +2566,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="3">
-        <f>SUM(B6:C6)</f>
+        <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
       <c r="E6" s="2"/>
@@ -2522,7 +2593,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="3">
-        <f>SUM(B7:C7)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E7" s="2"/>
@@ -2549,7 +2620,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="3">
-        <f>SUM(B8:C8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
@@ -2576,7 +2647,7 @@
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37">
-        <f>SUM(B9:C9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="38"/>
@@ -2590,7 +2661,7 @@
       <c r="M9" s="39"/>
       <c r="N9" s="39"/>
       <c r="O9" s="40">
-        <f t="shared" ref="O9:O16" si="1">D9-(SUM(E9:J9))</f>
+        <f t="shared" ref="O9:O16" si="2">D9-(SUM(E9:J9))</f>
         <v>1</v>
       </c>
     </row>
@@ -2603,7 +2674,7 @@
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="28">
-        <f>SUM(B10:C10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E10" s="12"/>
@@ -2617,7 +2688,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2630,7 +2701,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="3">
-        <f>SUM(B11:C11)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E11" s="11"/>
@@ -2644,7 +2715,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -2657,7 +2728,7 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="3">
-        <f>SUM(B12:C12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12" s="11"/>
@@ -2671,35 +2742,37 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="58">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3">
-        <f>SUM(B13:C13)</f>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="4">
-        <f t="shared" si="1"/>
+      <c r="E13" s="59">
         <v>1</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1">
@@ -2713,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="15">
-        <f>SUM(B14:C14)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E14" s="11"/>
@@ -2727,7 +2800,7 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2740,7 +2813,7 @@
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="32">
-        <f>SUM(B15:C15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E15" s="43"/>
@@ -2754,7 +2827,7 @@
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
       <c r="O15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -2767,7 +2840,7 @@
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="37">
-        <f>SUM(B16:C16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="38"/>
@@ -2781,7 +2854,7 @@
       <c r="M16" s="39"/>
       <c r="N16" s="39"/>
       <c r="O16" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2807,7 +2880,7 @@
       <c r="N17" s="50"/>
       <c r="O17" s="51">
         <f>SUM(O2:O16)</f>
-        <v>26.45</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1">
